--- a/test-030118/TSDV-SKERLET-TEC-PackageTests-2.0-mfp-0.10-ASROCK.xlsx
+++ b/test-030118/TSDV-SKERLET-TEC-PackageTests-2.0-mfp-0.10-ASROCK.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="929">
   <si>
     <t>Corresponding Specification / Design Document</t>
   </si>
@@ -11067,6 +11067,9 @@
   </si>
   <si>
     <t>BinhNK</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -12026,9 +12029,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12037,6 +12037,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -12716,12 +12719,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="78" t="s">
         <v>697</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
     </row>
     <row r="3" spans="1:16">
       <c r="F3" s="74" t="s">
@@ -12764,34 +12767,34 @@
       <c r="I6" s="74"/>
     </row>
     <row r="10" spans="1:16" ht="19.5">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="75" t="s">
         <v>705</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
     </row>
     <row r="11" spans="1:16" ht="23.25">
       <c r="A11" s="36"/>
       <c r="C11" s="37"/>
     </row>
     <row r="12" spans="1:16" s="39" customFormat="1" ht="48" customHeight="1">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="76" t="s">
         <v>706</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
@@ -12812,17 +12815,17 @@
       <c r="I13" s="40"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="77" t="s">
         <v>707</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
     </row>
     <row r="15" spans="1:16" ht="13.5">
       <c r="C15" s="41"/>
@@ -12852,11 +12855,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A14:I14"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="F2:I2"/>
@@ -12864,6 +12862,11 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A14:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -14256,7 +14259,7 @@
       <c r="H9" s="90"/>
       <c r="I9" s="6">
         <f>SUM('Automation Test'!G2, TBA!H3)</f>
-        <v>200</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="3:9" ht="21" customHeight="1" thickBot="1">
@@ -14292,7 +14295,7 @@
       <c r="H11" s="84"/>
       <c r="I11" s="61">
         <f>TBA!H5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="3:9" ht="36.75" customHeight="1" thickBot="1">
@@ -14311,7 +14314,7 @@
       <c r="H12" s="82"/>
       <c r="I12" s="12">
         <f>SUM('Automation Test'!G5, TBA!H6)</f>
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -18600,9 +18603,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18666,7 +18669,7 @@
       <c r="G3" s="93"/>
       <c r="H3" s="6">
         <f>COUNTIF(G12:G1450,"OK")</f>
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -18706,7 +18709,7 @@
       <c r="G5" s="84"/>
       <c r="H5" s="61">
         <f>COUNTIF(G12:G1450,"NA")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -18727,7 +18730,7 @@
       <c r="G6" s="95"/>
       <c r="H6" s="12">
         <f>H3+H4+H5</f>
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -19018,7 +19021,9 @@
       <c r="F19" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="19"/>
+      <c r="G19" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H19" s="19" t="s">
         <v>32</v>
       </c>
@@ -19044,7 +19049,9 @@
       <c r="F20" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="19"/>
+      <c r="G20" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H20" s="19" t="s">
         <v>32</v>
       </c>
@@ -19070,7 +19077,9 @@
       <c r="F21" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H21" s="19" t="s">
         <v>32</v>
       </c>
@@ -19096,7 +19105,9 @@
       <c r="F22" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="19"/>
+      <c r="G22" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H22" s="19" t="s">
         <v>32</v>
       </c>
@@ -19148,7 +19159,9 @@
       <c r="F24" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="19"/>
+      <c r="G24" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H24" s="19" t="s">
         <v>32</v>
       </c>
@@ -19174,7 +19187,9 @@
       <c r="F25" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G25" s="19"/>
+      <c r="G25" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H25" s="19" t="s">
         <v>32</v>
       </c>
@@ -19199,7 +19214,9 @@
       <c r="F26" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="G26" s="19"/>
+      <c r="G26" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H26" s="19" t="s">
         <v>32</v>
       </c>
@@ -19276,7 +19293,9 @@
       <c r="F29" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H29" s="19" t="s">
         <v>32</v>
       </c>
@@ -19397,7 +19416,9 @@
       <c r="F34" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="G34" s="19"/>
+      <c r="G34" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H34" s="19" t="s">
         <v>32</v>
       </c>
@@ -19422,7 +19443,9 @@
       <c r="F35" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="G35" s="19"/>
+      <c r="G35" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H35" s="19" t="s">
         <v>32</v>
       </c>
@@ -19447,7 +19470,9 @@
       <c r="F36" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="G36" s="19"/>
+      <c r="G36" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H36" s="19" t="s">
         <v>32</v>
       </c>
@@ -19497,7 +19522,9 @@
       <c r="F38" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="G38" s="19"/>
+      <c r="G38" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H38" s="19" t="s">
         <v>32</v>
       </c>
@@ -19522,7 +19549,9 @@
       <c r="F39" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="G39" s="19"/>
+      <c r="G39" s="19" t="s">
+        <v>928</v>
+      </c>
       <c r="H39" s="19" t="s">
         <v>32</v>
       </c>
@@ -19547,7 +19576,9 @@
       <c r="F40" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="G40" s="19"/>
+      <c r="G40" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H40" s="19" t="s">
         <v>32</v>
       </c>
@@ -19572,7 +19603,9 @@
       <c r="F41" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="G41" s="19"/>
+      <c r="G41" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H41" s="19" t="s">
         <v>32</v>
       </c>
@@ -19597,7 +19630,9 @@
       <c r="F42" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H42" s="19" t="s">
         <v>32</v>
       </c>
@@ -19622,7 +19657,9 @@
       <c r="F43" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="G43" s="19"/>
+      <c r="G43" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H43" s="19" t="s">
         <v>32</v>
       </c>
@@ -19647,7 +19684,9 @@
       <c r="F44" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="G44" s="19"/>
+      <c r="G44" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H44" s="19" t="s">
         <v>32</v>
       </c>
@@ -19672,7 +19711,9 @@
       <c r="F45" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="G45" s="19"/>
+      <c r="G45" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H45" s="19" t="s">
         <v>32</v>
       </c>
@@ -19747,7 +19788,9 @@
       <c r="F48" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G48" s="19"/>
+      <c r="G48" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H48" s="19" t="s">
         <v>32</v>
       </c>
@@ -19756,7 +19799,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:10" s="22" customFormat="1" ht="199.5">
+    <row r="49" spans="2:10" s="22" customFormat="1" ht="189">
       <c r="B49" s="18" t="s">
         <v>897</v>
       </c>
@@ -19772,7 +19815,9 @@
       <c r="F49" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="G49" s="19"/>
+      <c r="G49" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H49" s="19" t="s">
         <v>32</v>
       </c>
@@ -19797,7 +19842,9 @@
       <c r="F50" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="G50" s="19"/>
+      <c r="G50" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H50" s="19" t="s">
         <v>32</v>
       </c>
@@ -19822,7 +19869,9 @@
       <c r="F51" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="G51" s="19"/>
+      <c r="G51" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H51" s="19" t="s">
         <v>32</v>
       </c>
@@ -19856,7 +19905,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="2:10" s="22" customFormat="1" ht="31.5">
+    <row r="53" spans="2:10" s="22" customFormat="1" ht="21">
       <c r="B53" s="18" t="s">
         <v>901</v>
       </c>
@@ -19872,7 +19921,9 @@
       <c r="F53" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="G53" s="19"/>
+      <c r="G53" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H53" s="19" t="s">
         <v>32</v>
       </c>
@@ -19947,7 +19998,9 @@
       <c r="F56" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="G56" s="19"/>
+      <c r="G56" s="19" t="s">
+        <v>928</v>
+      </c>
       <c r="H56" s="19" t="s">
         <v>32</v>
       </c>
@@ -19997,7 +20050,9 @@
       <c r="F58" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="G58" s="19"/>
+      <c r="G58" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H58" s="19" t="s">
         <v>32</v>
       </c>
@@ -20022,7 +20077,9 @@
       <c r="F59" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="G59" s="19"/>
+      <c r="G59" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H59" s="19" t="s">
         <v>32</v>
       </c>
@@ -20047,7 +20104,9 @@
       <c r="F60" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="G60" s="19"/>
+      <c r="G60" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H60" s="19" t="s">
         <v>32</v>
       </c>
@@ -20056,7 +20115,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="2:10" s="22" customFormat="1" ht="273">
+    <row r="61" spans="2:10" s="22" customFormat="1" ht="252">
       <c r="B61" s="18" t="s">
         <v>913</v>
       </c>
@@ -20072,7 +20131,9 @@
       <c r="F61" s="19" t="s">
         <v>907</v>
       </c>
-      <c r="G61" s="19"/>
+      <c r="G61" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H61" s="19" t="s">
         <v>32</v>
       </c>
@@ -20122,7 +20183,9 @@
       <c r="F63" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="G63" s="19"/>
+      <c r="G63" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H63" s="19" t="s">
         <v>32</v>
       </c>
@@ -20131,7 +20194,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="2:10" s="22" customFormat="1" ht="147">
+    <row r="64" spans="2:10" s="22" customFormat="1" ht="136.5">
       <c r="B64" s="18" t="s">
         <v>916</v>
       </c>
@@ -20235,6 +20298,12 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <autoFilter ref="G1:G69"/>
   <mergeCells count="14">
+    <mergeCell ref="B66:J66"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="E2:E6"/>
@@ -20243,12 +20312,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B66:J66"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G67:G68 G12:G64">
